--- a/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>0,0; 1,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,85</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,87</t>
+          <t>1,41; 5,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,33</t>
+          <t>0,87; 3,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,69</t>
+          <t>1,34; 3,76</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,65</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,25</t>
+          <t>0,52; 3,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,98</t>
+          <t>0,42; 1,94</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,79</t>
+          <t>0,6; 2,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,15</t>
+          <t>0,53; 2,26</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,46</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,28</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,69</t>
+          <t>0,18; 1,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,41</t>
+          <t>0,29; 1,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,21</t>
+          <t>0,28; 1,07</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,48</t>
+          <t>7,36; 12,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,22</t>
+          <t>7,29; 11,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,99</t>
+          <t>7,96; 11,11</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,11</t>
+          <t>2,56; 3,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,32</t>
+          <t>2,29; 3,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,41</t>
+          <t>2,56; 3,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 6,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,15; 2,82</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,9</t>
+          <t>2,06; 7,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,29</t>
+          <t>1,89; 4,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,76</t>
+          <t>2,33; 5,07</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>0,86; 4,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,42</t>
+          <t>1,18; 4,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,94</t>
+          <t>1,32; 3,72</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>2,37%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,7</t>
+          <t>0,38; 3,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,64</t>
+          <t>1,68; 6,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,26</t>
+          <t>1,39; 4,21</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,12; 1,19</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,66; 4,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>1,18; 4,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>1,17; 3,99</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,64</t>
+          <t>0,54; 2,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,35</t>
+          <t>0,52; 1,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,07</t>
+          <t>0,67; 1,76</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>10,68%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,1</t>
+          <t>8,41; 13,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,24</t>
+          <t>8,38; 12,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,11</t>
+          <t>9,13; 12,2</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,96</t>
+          <t>3,47; 5,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,4</t>
+          <t>3,25; 4,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,44</t>
+          <t>3,5; 4,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78_n_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,67</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,32</t>
+          <t>0,0; 9,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,82</t>
+          <t>0,14; 4,11</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 7,08</t>
+          <t>2,05; 7,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,76</t>
+          <t>1,9; 4,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,07</t>
+          <t>2,38; 5,31</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,62</t>
+          <t>0,86; 4,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,51</t>
+          <t>1,2; 4,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,72</t>
+          <t>1,31; 3,77</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,12</t>
+          <t>0,36; 3,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,55</t>
+          <t>1,24; 5,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,21</t>
+          <t>1,17; 3,82</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,42%</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 1,19</t>
+          <t>0,11; 1,19</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,35</t>
+          <t>0,67; 4,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,76</t>
+          <t>1,18; 4,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,99</t>
+          <t>1,17; 3,98</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,22</t>
+          <t>0,53; 2,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,86</t>
+          <t>0,36; 1,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,76</t>
+          <t>0,54; 1,69</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,66</t>
+          <t>4,02; 12,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,38; 12,63</t>
+          <t>8,42; 12,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,2</t>
+          <t>5,5; 11,54</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,47; 5,14</t>
+          <t>2,77; 4,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,53</t>
+          <t>2,79; 4,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 4,52</t>
+          <t>3,06; 4,1</t>
         </is>
       </c>
     </row>
